--- a/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_5.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/DFS/PLN_32_5.xlsx
@@ -454,7 +454,7 @@
         <v>1549</v>
       </c>
       <c r="D2" t="n">
-        <v>4.520213842391968</v>
+        <v>4.166050910949707</v>
       </c>
     </row>
   </sheetData>
